--- a/data/trans_dic/P29_R2_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P29_R2_2023-Provincia-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09947791532188566</v>
+        <v>0.1014407775584653</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01144938783185236</v>
+        <v>0.01215866658029386</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06132244003375617</v>
+        <v>0.06094988858126974</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1707551205773277</v>
+        <v>0.1730446134396127</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03983769017583763</v>
+        <v>0.03763943306555575</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1010150449243324</v>
+        <v>0.0983777999985463</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.05988179522179168</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.007088291881441294</v>
+        <v>0.007088291881441295</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.03305518694617755</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03981944898069284</v>
+        <v>0.04161824441667558</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002698896583469284</v>
+        <v>0.002430803499269148</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02229304544757119</v>
+        <v>0.02303883686493262</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08603515804648207</v>
+        <v>0.08629718638518662</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01516253894839407</v>
+        <v>0.01462862969322603</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04444120963511095</v>
+        <v>0.04470148971025005</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1694540697877011</v>
+        <v>0.1665229811953648</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02223639391739598</v>
+        <v>0.02289335309648558</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09472283523492678</v>
+        <v>0.09499861666961237</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2439181834578544</v>
+        <v>0.2473584422190702</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05168886300896455</v>
+        <v>0.05250566862651677</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1372168928682974</v>
+        <v>0.1347989167239727</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1393441831554187</v>
+        <v>0.1361581537876971</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02473309777637</v>
+        <v>0.02549441190658376</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08198524934839746</v>
+        <v>0.08216326561681606</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2226508064791953</v>
+        <v>0.2166337407582473</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0535735758397027</v>
+        <v>0.05505122680855032</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1248713179882514</v>
+        <v>0.1265987153047962</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.1120628741914537</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.02128919294826301</v>
+        <v>0.021289192948263</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.06441654673371605</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0769600921379458</v>
+        <v>0.07825223653029445</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01082340621102053</v>
+        <v>0.01077594207282788</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0467858764019877</v>
+        <v>0.0471947932247387</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.149522312826588</v>
+        <v>0.1558764429975089</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03938543995882064</v>
+        <v>0.04045222092665959</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08753121909253124</v>
+        <v>0.08627272180415212</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.2093590157946262</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.03413698679014211</v>
+        <v>0.0341369867901421</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.1227663046576999</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1703187962659369</v>
+        <v>0.1694263054075545</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02084478120846851</v>
+        <v>0.02095159469174601</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1010095392496863</v>
+        <v>0.1010583283676913</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2562030395386967</v>
+        <v>0.2511550203532665</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05412187296943907</v>
+        <v>0.05308416555196671</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.148210526319775</v>
+        <v>0.1484757859748277</v>
       </c>
     </row>
     <row r="22">
@@ -897,7 +897,7 @@
         <v>0.1260584128311998</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.03882071450651777</v>
+        <v>0.03882071450651776</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.08089582743654455</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1021179980063378</v>
+        <v>0.1030793537953119</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02802093442157232</v>
+        <v>0.02892267245115839</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.06757257198281783</v>
+        <v>0.06760863569068723</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.151496566063555</v>
+        <v>0.1556721452117251</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05374214620402007</v>
+        <v>0.05491517690575073</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.09632606922705129</v>
+        <v>0.09481328488588053</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2216260337119478</v>
+        <v>0.2202777546733859</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.03407183480675761</v>
+        <v>0.03385160445850961</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1283160090580118</v>
+        <v>0.129950654414672</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2848736149460433</v>
+        <v>0.2794931903411242</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.05887894238488364</v>
+        <v>0.05771691711574844</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1637138241527457</v>
+        <v>0.1640181498747174</v>
       </c>
     </row>
     <row r="28">
@@ -1010,7 +1010,7 @@
         <v>0.03206753535486157</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.09575334199999641</v>
+        <v>0.0957533419999964</v>
       </c>
     </row>
     <row r="29">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1499647344990363</v>
+        <v>0.1517920886448285</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.0275737690103387</v>
+        <v>0.02773340642727296</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.08964058213669704</v>
+        <v>0.08919326331497511</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.175233472421133</v>
+        <v>0.1758289925390184</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.03726779689148163</v>
+        <v>0.03755592366352876</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1018259326698012</v>
+        <v>0.1030039939129263</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>31718</v>
+        <v>32344</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3619</v>
+        <v>3843</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>38934</v>
+        <v>38697</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>54444</v>
+        <v>55174</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12591</v>
+        <v>11896</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>64135</v>
+        <v>62461</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>21040</v>
+        <v>21991</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1473</v>
+        <v>1327</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>23949</v>
+        <v>24750</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>45460</v>
+        <v>45598</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>8277</v>
+        <v>7986</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>47742</v>
+        <v>48022</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>53546</v>
+        <v>52620</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7925</v>
+        <v>8159</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>63689</v>
+        <v>63875</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>77076</v>
+        <v>78164</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>18421</v>
+        <v>18712</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>92261</v>
+        <v>90635</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>51996</v>
+        <v>50807</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>10436</v>
+        <v>10758</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>65187</v>
+        <v>65329</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>83081</v>
+        <v>80836</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>22606</v>
+        <v>23229</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>99286</v>
+        <v>100660</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>15828</v>
+        <v>16094</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2459</v>
+        <v>2448</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>20253</v>
+        <v>20430</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>30752</v>
+        <v>32058</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>8949</v>
+        <v>9191</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>37890</v>
+        <v>37346</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>45978</v>
+        <v>45737</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>5498</v>
+        <v>5526</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>53909</v>
+        <v>53935</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>69163</v>
+        <v>67800</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>14275</v>
+        <v>14001</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>79101</v>
+        <v>79242</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>73029</v>
+        <v>73717</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>21510</v>
+        <v>22202</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>100195</v>
+        <v>100248</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>108342</v>
+        <v>111328</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>41254</v>
+        <v>42154</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>142829</v>
+        <v>140586</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>176874</v>
+        <v>175798</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>28212</v>
+        <v>28029</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>208652</v>
+        <v>211310</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>227350</v>
+        <v>223056</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>48752</v>
+        <v>47790</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>266211</v>
+        <v>266706</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>528657</v>
+        <v>535099</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>102764</v>
+        <v>103359</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>650081</v>
+        <v>646837</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>617735</v>
+        <v>619834</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>138893</v>
+        <v>139966</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>738451</v>
+        <v>746994</v>
       </c>
     </row>
     <row r="40">
